--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Profile</t>
   </si>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>University names</t>
+  </si>
+  <si>
+    <t>Mедицина</t>
+  </si>
+  <si>
+    <t>[Московский Государственный Медицинский Университет, Тамбовский Университет Медицины, Самарский Медицинский Институт]</t>
+  </si>
+  <si>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>[Московский Выдуманный Университет, Московский Придуманный Институт]</t>
   </si>
 </sst>
 </file>
@@ -77,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,6 +112,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>4.333333492279053</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>4.537499964237213</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/statistics.xlsx
+++ b/src/main/resources/statistics.xlsx
@@ -29,16 +29,16 @@
     <t>University names</t>
   </si>
   <si>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>[Московский Выдуманный Университет, Московский Придуманный Институт]</t>
+  </si>
+  <si>
     <t>Mедицина</t>
   </si>
   <si>
     <t>[Московский Государственный Медицинский Университет, Тамбовский Университет Медицины, Самарский Медицинский Институт]</t>
-  </si>
-  <si>
-    <t>Fisica</t>
-  </si>
-  <si>
-    <t>[Московский Выдуманный Университет, Московский Придуманный Институт]</t>
   </si>
 </sst>
 </file>
@@ -117,13 +117,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.333333492279053</v>
+        <v>4.537499964237213</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>6</v>
@@ -134,13 +134,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.537499964237213</v>
+        <v>4.333333492279053</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>8</v>
